--- a/data/trans_bre/CoTrAQ_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R-Clase-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.17610011626697</v>
+        <v>-10.06875884738434</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.13913596722199</v>
+        <v>-15.83265217817413</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.1142635592303109</v>
+        <v>-0.1123442960537399</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1947899304826514</v>
+        <v>-0.2032148452263735</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.449902711840573</v>
+        <v>3.472726562931737</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.008855267831006</v>
+        <v>0.6558951350652996</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.04032623821585525</v>
+        <v>0.04117871154798994</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.02626650257638456</v>
+        <v>0.009008728698939587</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-21.12287875374319</v>
+        <v>-21.23067941407166</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-22.72720494534789</v>
+        <v>-23.29473618933349</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2689566761139414</v>
+        <v>-0.2707780869792626</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3568938289799966</v>
+        <v>-0.3730377192521965</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.4335106037406271</v>
+        <v>-1.197407927000437</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-3.180057924456421</v>
+        <v>-3.297161984294091</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.00633228936655592</v>
+        <v>-0.01782519003458185</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.05629938927094492</v>
+        <v>-0.0641624480318196</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.75351467785215</v>
+        <v>-4.871848013730692</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.000056359252454</v>
+        <v>7.888747559150663</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.0455697024669063</v>
+        <v>-0.06074630822344741</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.1398718995885457</v>
+        <v>0.1087132055681811</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.53801692941145</v>
+        <v>13.8551635588306</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>29.61914689376726</v>
+        <v>29.42226531281747</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.1850213963324905</v>
+        <v>0.189177769204708</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.490796897477395</v>
+        <v>0.4769958938629418</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.448068433751306</v>
+        <v>-9.770371440631944</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.97132910762879</v>
+        <v>-4.730375714378291</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.151929780053286</v>
+        <v>-0.1573296566482553</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.104298054434374</v>
+        <v>-0.09992280383760173</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.317471521350972</v>
+        <v>5.512738572300656</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.140561477433689</v>
+        <v>8.811307565625782</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09442313801134351</v>
+        <v>0.09783633602593404</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.223723845089944</v>
+        <v>0.2168840659075017</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.11599672526565</v>
+        <v>-12.84372335473977</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.66039016971581</v>
+        <v>-13.5827383829943</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.2374630464715292</v>
+        <v>-0.2347299703927562</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3529523193687284</v>
+        <v>-0.3456787844307158</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.751519467566789</v>
+        <v>9.815264800500865</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.981417447729687</v>
+        <v>5.503433743332394</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.2278161424074408</v>
+        <v>0.2362276365939237</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1788897316405289</v>
+        <v>0.202532726949294</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-9.707328736442744</v>
+        <v>-10.14936375067366</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-8.767506390662701</v>
+        <v>-8.563060173349074</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1346017981813648</v>
+        <v>-0.1389390472070413</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1549558458967631</v>
+        <v>-0.1540308876954409</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-1.332803698508985</v>
+        <v>-1.400177174375961</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.7239532469601277</v>
+        <v>0.005567383431409201</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01973763882725552</v>
+        <v>-0.01864387355973391</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.013487364957809</v>
+        <v>-1.649775037471157e-05</v>
       </c>
     </row>
     <row r="22">
